--- a/demog280-syllabus/demog280 - 2025.xlsx
+++ b/demog280-syllabus/demog280 - 2025.xlsx
@@ -440,7 +440,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[Structure and segregation](#sec:communities)</t>
+          <t>[Scale-free networks and other models of time](#sec:netform-time)</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[Social Capital and SOWT: Contemporary](#sec:sowt-contemporary)</t>
+          <t>[Structure, segregation, and communities](#sec:communities)</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[Scale-free networks and other models of time](#sec:netform-time)</t>
+          <t>[Social Capital and SOWT: Contemporary](#sec:sowt-contemporary)</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[Complex contagion](#sec:complex-contagion)</t>
+          <t>[Complex contagion and social influence I](#sec:complex-contagion)</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[Peer effects](#sec:peer-effects)</t>
+          <t>[Social influence II](#sec:influence)</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[Challenges in detecting spread on a network](#sec:spread)</t>
+          <t>[Collaboration and cooperation](#sec:cooperation)</t>
         </is>
       </c>
     </row>
